--- a/views/financeiro/relatorios/resumo_campanha_65.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_65.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>CAMPANHA 65</t>
   </si>
@@ -29,13 +29,16 @@
     <t>PAGAMENTO:</t>
   </si>
   <si>
+    <t>07/12/2024</t>
+  </si>
+  <si>
+    <t>VENDA EM BOLETOS - MATRIZ</t>
+  </si>
+  <si>
+    <t>PAGAMENTO PÓS:</t>
+  </si>
+  <si>
     <t>25/11/2024</t>
-  </si>
-  <si>
-    <t>VENDA EM BOLETOS - MATRIZ</t>
-  </si>
-  <si>
-    <t>PAGAMENTO PÓS:</t>
   </si>
   <si>
     <t>VENDEDOR</t>
@@ -606,53 +609,53 @@
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>8440.0</v>
+        <v>11563.0</v>
       </c>
       <c r="D8" s="6">
-        <v>3270.0</v>
+        <v>9980.0</v>
       </c>
       <c r="E8" s="6">
-        <v>5170.0</v>
+        <v>1583.0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.61255924170616</v>
+        <v>0.13690218801349</v>
       </c>
       <c r="G8" s="6">
-        <v>51.7</v>
+        <v>15.83</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -663,22 +666,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
-        <v>1360.0</v>
+        <v>2460.0</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>2460.0</v>
       </c>
       <c r="E9" s="6">
-        <v>1360.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="6">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -689,22 +692,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6">
-        <v>12950.0</v>
+        <v>21670.0</v>
       </c>
       <c r="D10" s="6">
-        <v>5220.0</v>
+        <v>13020.0</v>
       </c>
       <c r="E10" s="6">
-        <v>7730.0</v>
+        <v>8650.0</v>
       </c>
       <c r="F10" s="7">
-        <v>0.5969111969112</v>
+        <v>0.39916935856022</v>
       </c>
       <c r="G10" s="6">
-        <v>77.3</v>
+        <v>86.5</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -715,22 +718,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6">
-        <v>9985.0</v>
+        <v>13685.0</v>
       </c>
       <c r="D11" s="6">
-        <v>550.0</v>
+        <v>10730.0</v>
       </c>
       <c r="E11" s="6">
-        <v>9435.0</v>
+        <v>2955.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.9449173760641</v>
+        <v>0.21592985020095</v>
       </c>
       <c r="G11" s="6">
-        <v>94.35</v>
+        <v>29.55</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -741,22 +744,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6">
-        <v>9450.0</v>
+        <v>13530.0</v>
       </c>
       <c r="D12" s="6">
-        <v>5850.0</v>
+        <v>13530.0</v>
       </c>
       <c r="E12" s="6">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.38095238095238</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="6">
-        <v>36.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -767,22 +770,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>42185.0</v>
+        <v>62908.0</v>
       </c>
       <c r="D13" s="9">
-        <v>14890.0</v>
+        <v>49720.0</v>
       </c>
       <c r="E13" s="9">
-        <v>27295.0</v>
+        <v>13188.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.64703093516653</v>
+        <v>0.20963947351688</v>
       </c>
       <c r="G13" s="9">
-        <v>272.95</v>
+        <v>131.88</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -793,53 +796,53 @@
     </row>
     <row r="15" spans="1:9">
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6">
-        <v>600.0</v>
+        <v>960.0</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <v>600.0</v>
+        <v>960.0</v>
       </c>
       <c r="F17" s="7">
         <v>1.0</v>
       </c>
       <c r="G17" s="6">
-        <v>6.0</v>
+        <v>9.6</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
@@ -850,22 +853,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="9">
-        <v>600.0</v>
+        <v>960.0</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="9">
-        <v>600.0</v>
+        <v>960.0</v>
       </c>
       <c r="F18" s="10">
         <v>1.0</v>
       </c>
       <c r="G18" s="9">
-        <v>6.0</v>
+        <v>9.6</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -876,53 +879,53 @@
     </row>
     <row r="19" spans="1:9">
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6">
         <v>3026.05</v>
       </c>
       <c r="D21" s="6">
-        <v>0</v>
+        <v>3026.05</v>
       </c>
       <c r="E21" s="6">
-        <v>3026.05</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" s="6">
-        <v>30.2605</v>
+        <v>0</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
@@ -933,22 +936,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9">
         <v>3026.05</v>
       </c>
       <c r="D22" s="9">
-        <v>0</v>
+        <v>3026.05</v>
       </c>
       <c r="E22" s="9">
-        <v>3026.05</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G22" s="9">
-        <v>30.2605</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -959,53 +962,53 @@
     </row>
     <row r="23" spans="1:9">
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6">
-        <v>42185.0</v>
+        <v>62908.0</v>
       </c>
       <c r="D25" s="6">
-        <v>14890.0</v>
+        <v>49720.0</v>
       </c>
       <c r="E25" s="6">
-        <v>27295.0</v>
+        <v>13188.0</v>
       </c>
       <c r="F25" s="7">
-        <v>0.64703093516653</v>
+        <v>0.20963947351688</v>
       </c>
       <c r="G25" s="6">
-        <v>272.95</v>
+        <v>131.88</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
@@ -1016,22 +1019,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6">
-        <v>600.0</v>
+        <v>960.0</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="6">
-        <v>600.0</v>
+        <v>960.0</v>
       </c>
       <c r="F26" s="7">
         <v>1.0</v>
       </c>
       <c r="G26" s="6">
-        <v>6.0</v>
+        <v>9.6</v>
       </c>
       <c r="H26" s="8">
         <v>0</v>
@@ -1042,22 +1045,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6">
         <v>3026.05</v>
       </c>
       <c r="D27" s="6">
-        <v>0</v>
+        <v>3026.05</v>
       </c>
       <c r="E27" s="6">
-        <v>3026.05</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G27" s="6">
-        <v>30.2605</v>
+        <v>0</v>
       </c>
       <c r="H27" s="8">
         <v>0</v>
@@ -1068,22 +1071,22 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="9">
-        <v>45811.05</v>
+        <v>66894.05</v>
       </c>
       <c r="D28" s="9">
-        <v>14890.0</v>
+        <v>52746.05</v>
       </c>
       <c r="E28" s="9">
-        <v>30921.05</v>
+        <v>14148.0</v>
       </c>
       <c r="F28" s="10">
-        <v>0.67496924868563</v>
+        <v>0.21149863104417</v>
       </c>
       <c r="G28" s="9">
-        <v>309.2105</v>
+        <v>141.48</v>
       </c>
       <c r="H28" s="9">
         <v>0</v>
@@ -1094,109 +1097,109 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="12">
-        <v>8440.0</v>
+        <v>11563.0</v>
       </c>
       <c r="E32" s="13">
-        <v>3270.0</v>
+        <v>9980.0</v>
       </c>
       <c r="F32" s="12">
-        <v>5170.0</v>
+        <v>1583.0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="B33" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" s="12">
-        <v>1360.0</v>
+        <v>2460.0</v>
       </c>
       <c r="E33" s="13">
-        <v>0</v>
+        <v>2460.0</v>
       </c>
       <c r="F33" s="12">
-        <v>1360.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="12">
-        <v>12950.0</v>
+        <v>21670.0</v>
       </c>
       <c r="E34" s="13">
-        <v>5220.0</v>
+        <v>13020.0</v>
       </c>
       <c r="F34" s="12">
-        <v>7730.0</v>
+        <v>8650.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" s="12">
-        <v>9985.0</v>
+        <v>13685.0</v>
       </c>
       <c r="E35" s="13">
-        <v>550.0</v>
+        <v>10730.0</v>
       </c>
       <c r="F35" s="12">
-        <v>9435.0</v>
+        <v>2955.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="12">
-        <v>9450.0</v>
+        <v>13530.0</v>
       </c>
       <c r="E36" s="13">
-        <v>5850.0</v>
+        <v>13530.0</v>
       </c>
       <c r="F36" s="12">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1208,19 +1211,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38" s="12">
-        <v>600.0</v>
+        <v>960.0</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
       </c>
       <c r="F38" s="12">
-        <v>600.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1232,55 +1235,55 @@
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="12">
         <v>3026.05</v>
       </c>
       <c r="E40" s="13">
-        <v>0</v>
+        <v>3026.05</v>
       </c>
       <c r="F40" s="12">
-        <v>3026.05</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="B41" s="5"/>
       <c r="C41" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="9">
         <f>sum(D32:D40)</f>
-        <v>45811.05</v>
+        <v>66894.05</v>
       </c>
       <c r="E41" s="9">
         <f>sum(E32:E40)</f>
-        <v>14890</v>
+        <v>52746.05</v>
       </c>
       <c r="F41" s="9">
         <f>sum(F32:F40)</f>
-        <v>30921.05</v>
+        <v>14148</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="D42" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E42" s="15">
         <f>(E41/D41)</f>
-        <v>0.32503075131437</v>
+        <v>0.78850136895583</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="D43" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E43" s="15">
         <f>(F41/D41)</f>
-        <v>0.67496924868563</v>
+        <v>0.21149863104417</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_65.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_65.xlsx
@@ -695,25 +695,25 @@
         <v>18</v>
       </c>
       <c r="C10" s="6">
-        <v>21670.0</v>
+        <v>21280.0</v>
       </c>
       <c r="D10" s="6">
         <v>13020.0</v>
       </c>
       <c r="E10" s="6">
-        <v>8650.0</v>
+        <v>8260.0</v>
       </c>
       <c r="F10" s="7">
-        <v>0.39916935856022</v>
+        <v>0.38815789473684</v>
       </c>
       <c r="G10" s="6">
-        <v>86.5</v>
+        <v>82.6</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>6310.0</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -773,25 +773,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>62908.0</v>
+        <v>62518.0</v>
       </c>
       <c r="D13" s="9">
         <v>49720.0</v>
       </c>
       <c r="E13" s="9">
-        <v>13188.0</v>
+        <v>12798.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.20963947351688</v>
+        <v>0.20470904379539</v>
       </c>
       <c r="G13" s="9">
-        <v>131.88</v>
+        <v>127.98</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>6310.0</v>
       </c>
       <c r="I13" s="9">
-        <v>0.0</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -996,25 +996,25 @@
         <v>28</v>
       </c>
       <c r="C25" s="6">
-        <v>62908.0</v>
+        <v>62518.0</v>
       </c>
       <c r="D25" s="6">
         <v>49720.0</v>
       </c>
       <c r="E25" s="6">
-        <v>13188.0</v>
+        <v>12798.0</v>
       </c>
       <c r="F25" s="7">
-        <v>0.20963947351688</v>
+        <v>0.20470904379539</v>
       </c>
       <c r="G25" s="6">
-        <v>131.88</v>
+        <v>127.98</v>
       </c>
       <c r="H25" s="8">
-        <v>0</v>
+        <v>6310.0</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1074,25 +1074,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="9">
-        <v>66894.05</v>
+        <v>66504.05</v>
       </c>
       <c r="D28" s="9">
         <v>52746.05</v>
       </c>
       <c r="E28" s="9">
-        <v>14148.0</v>
+        <v>13758.0</v>
       </c>
       <c r="F28" s="10">
-        <v>0.21149863104417</v>
+        <v>0.20687461891419</v>
       </c>
       <c r="G28" s="9">
-        <v>141.48</v>
+        <v>137.58</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>6310.0</v>
       </c>
       <c r="I28" s="9">
-        <v>0.0</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1159,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="D34" s="12">
-        <v>21670.0</v>
+        <v>21280.0</v>
       </c>
       <c r="E34" s="13">
-        <v>13020.0</v>
+        <v>19330.0</v>
       </c>
       <c r="F34" s="12">
-        <v>8650.0</v>
+        <v>1950.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1257,15 +1257,15 @@
       </c>
       <c r="D41" s="9">
         <f>sum(D32:D40)</f>
-        <v>66894.05</v>
+        <v>66504.05</v>
       </c>
       <c r="E41" s="9">
         <f>sum(E32:E40)</f>
-        <v>52746.05</v>
+        <v>59056.05</v>
       </c>
       <c r="F41" s="9">
         <f>sum(F32:F40)</f>
-        <v>14148</v>
+        <v>7448</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E42" s="15">
         <f>(E41/D41)</f>
-        <v>0.78850136895583</v>
+        <v>0.88800682063724</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="E43" s="15">
         <f>(F41/D41)</f>
-        <v>0.21149863104417</v>
+        <v>0.11199317936276</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_65.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_65.xlsx
@@ -658,10 +658,10 @@
         <v>15.83</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>703.0</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -788,10 +788,10 @@
         <v>127.98</v>
       </c>
       <c r="H13" s="9">
-        <v>6310.0</v>
+        <v>7013.0</v>
       </c>
       <c r="I13" s="9">
-        <v>126.2</v>
+        <v>140.26</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>127.98</v>
       </c>
       <c r="H25" s="8">
-        <v>6310.0</v>
+        <v>7013.0</v>
       </c>
       <c r="I25" s="8">
-        <v>126.2</v>
+        <v>140.26</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1089,10 +1089,10 @@
         <v>137.58</v>
       </c>
       <c r="H28" s="9">
-        <v>6310.0</v>
+        <v>7013.0</v>
       </c>
       <c r="I28" s="9">
-        <v>126.2</v>
+        <v>140.26</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1128,10 +1128,10 @@
         <v>11563.0</v>
       </c>
       <c r="E32" s="13">
-        <v>9980.0</v>
+        <v>10683.0</v>
       </c>
       <c r="F32" s="12">
-        <v>1583.0</v>
+        <v>880.0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1261,11 +1261,11 @@
       </c>
       <c r="E41" s="9">
         <f>sum(E32:E40)</f>
-        <v>59056.05</v>
+        <v>59759.05</v>
       </c>
       <c r="F41" s="9">
         <f>sum(F32:F40)</f>
-        <v>7448</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E42" s="15">
         <f>(E41/D41)</f>
-        <v>0.88800682063724</v>
+        <v>0.89857760542403</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="E43" s="15">
         <f>(F41/D41)</f>
-        <v>0.11199317936276</v>
+        <v>0.10142239457597</v>
       </c>
     </row>
   </sheetData>
